--- a/genshin/463763816933850772_2020-12-01_18-00-28.xlsx
+++ b/genshin/463763816933850772_2020-12-01_18-00-28.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-21 14:30:17</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44186.60436342593</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -602,10 +616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-12-19 17:22:00</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44184.72361111111</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -703,10 +715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-12-17 17:04:04</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44182.71115740741</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -770,10 +780,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-12-14 01:14:00</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44179.05138888889</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -841,10 +849,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-12-12 01:40:53</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44177.07005787037</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -920,10 +926,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-12-11 21:52:56</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44176.91175925926</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -991,10 +995,8 @@
           <t>3775257389</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-12-11 20:41:52</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44176.86240740741</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1062,10 +1064,8 @@
           <t>3775257389</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-12-11 20:36:08</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44176.85842592592</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1137,10 +1137,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-12-11 20:21:46</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44176.84844907407</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1212,10 +1210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-12-11 15:30:36</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44176.64625</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1287,10 +1283,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-12-10 20:52:37</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44175.86987268519</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1362,10 +1356,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-12-10 19:04:57</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44175.79510416667</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1433,10 +1425,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-12-10 14:50:19</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44175.61827546296</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -1512,10 +1502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-12-10 13:03:14</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44175.54391203704</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1583,10 +1571,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-12-10 09:41:19</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44175.40369212963</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1650,10 +1636,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-12-10 09:27:06</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44175.39381944444</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1729,10 +1713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-12-09 19:45:56</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44174.82356481482</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1804,10 +1786,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-12-09 17:17:15</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44174.7203125</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1867,10 +1847,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-12-09 13:58:36</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44174.58236111111</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1938,10 +1916,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-12-09 12:48:44</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44174.53384259259</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2017,10 +1993,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-12-08 23:22:01</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44173.97362268518</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2084,10 +2058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-12-08 20:14:27</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44173.84336805555</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2159,10 +2131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-12-08 12:05:09</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44173.50357638889</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2230,10 +2200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-12-08 01:46:12</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44173.07375</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2305,10 +2273,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-12-07 21:02:54</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44172.87701388889</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2380,10 +2346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-12-07 21:02:50</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44172.87696759259</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2455,10 +2419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-12-07 19:24:43</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44172.80883101852</v>
       </c>
       <c r="I28" t="n">
         <v>2</v>
@@ -2522,10 +2484,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-12-07 16:20:17</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44172.68075231482</v>
       </c>
       <c r="I29" t="n">
         <v>3</v>
@@ -2597,10 +2557,8 @@
           <t>3775257389</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-12-07 10:10:23</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44172.42387731482</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2672,10 +2630,8 @@
           <t>3775257389</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-12-07 09:49:23</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44172.40929398148</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2743,10 +2699,8 @@
           <t>3775257389</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-12-07 09:47:28</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44172.40796296296</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2814,10 +2768,8 @@
           <t>3775257389</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-12-07 09:44:12</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44172.40569444445</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2889,10 +2841,8 @@
           <t>3775257389</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-12-07 08:04:33</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44172.33649305555</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2960,10 +2910,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-12-07 00:01:24</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44172.00097222222</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
@@ -3027,10 +2975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-12-06 17:10:34</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44171.7156712963</v>
       </c>
       <c r="I36" t="n">
         <v>1</v>
@@ -3090,10 +3036,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-12-05 11:59:08</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44170.49939814815</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3157,10 +3101,8 @@
           <t>3775257389</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-12-04 21:43:52</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44169.90546296296</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3228,10 +3170,8 @@
           <t>3775257389</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-12-04 21:40:41</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44169.90325231481</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3303,10 +3243,8 @@
           <t>3775257389</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-12-04 20:14:37</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44169.8434837963</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3374,10 +3312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-12-04 17:26:42</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44169.726875</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3449,10 +3385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-12-04 02:04:30</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44169.08645833333</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3516,10 +3450,8 @@
           <t>3775258049</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-12-04 01:10:50</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44169.04918981482</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3591,10 +3523,8 @@
           <t>3775257528</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-12-04 01:10:01</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44169.04862268519</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3666,10 +3596,8 @@
           <t>3775257389</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-12-04 01:09:48</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44169.04847222222</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3741,10 +3669,8 @@
           <t>3772357508</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-12-03 08:33:50</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44168.35682870371</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3804,10 +3730,8 @@
           <t>3772023737</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-12-03 01:24:15</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44168.05850694444</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3883,10 +3807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-12-02 23:00:23</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44167.95859953704</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3946,10 +3868,8 @@
           <t>3771515460</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-12-02 22:49:33</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44167.95107638889</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4021,10 +3941,8 @@
           <t>3771371031</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-12-02 22:14:19</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44167.9266087963</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4096,10 +4014,8 @@
           <t>3771211778</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-12-02 21:34:43</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44167.89910879629</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4167,10 +4083,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-12-02 21:18:21</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44167.88774305556</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4230,10 +4144,8 @@
           <t>3770944570</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-12-02 20:23:11</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44167.84943287037</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4301,10 +4213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-12-02 19:58:46</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44167.83247685185</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4380,10 +4290,8 @@
           <t>3770771578</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-12-02 19:33:22</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44167.81483796296</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4459,10 +4367,8 @@
           <t>3770771097</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-12-02 19:33:00</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44167.81458333333</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4538,10 +4444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-12-02 19:06:11</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44167.79596064815</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4609,10 +4513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-12-02 18:31:06</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44167.77159722222</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4688,10 +4590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-12-02 18:24:43</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44167.76716435186</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4763,10 +4663,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-12-02 18:18:19</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44167.7627199074</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4838,10 +4736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-12-02 16:54:02</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44167.70418981482</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4905,10 +4801,8 @@
           <t>3769771306</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-12-02 13:47:52</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44167.5749074074</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4980,10 +4874,8 @@
           <t>3769742618</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-12-02 13:37:10</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44167.56747685185</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5051,10 +4943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-12-02 12:24:42</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44167.51715277778</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5118,10 +5008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-12-02 10:54:53</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44167.45478009259</v>
       </c>
       <c r="I65" t="n">
         <v>2</v>
@@ -5181,10 +5069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-12-02 10:12:41</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44167.42547453703</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5252,10 +5138,8 @@
           <t>3769165170</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-12-02 10:09:43</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44167.42341435186</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5323,10 +5207,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-12-02 09:38:53</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44167.40200231481</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
@@ -5398,10 +5280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-12-02 09:26:16</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44167.39324074074</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5465,10 +5345,8 @@
           <t>3769068414</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-12-02 09:20:31</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44167.38924768518</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5540,10 +5418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-12-02 09:18:28</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44167.38782407407</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5607,10 +5483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-12-02 08:23:46</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44167.34983796296</v>
       </c>
       <c r="I72" t="n">
         <v>1</v>
@@ -5682,10 +5556,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-12-02 06:44:13</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44167.28070601852</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5749,10 +5621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-12-02 06:04:57</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44167.2534375</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5816,10 +5686,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-12-02 05:46:06</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44167.24034722222</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5887,10 +5755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-12-02 05:37:05</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44167.23408564815</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -5958,10 +5824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-12-02 03:58:14</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44167.16543981482</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6029,10 +5893,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-12-02 02:39:44</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44167.11092592592</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6108,10 +5970,8 @@
           <t>3768742531</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-12-02 02:37:31</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44167.10938657408</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6179,10 +6039,8 @@
           <t>3768723544</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-12-02 02:18:45</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44167.09635416666</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6250,10 +6108,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-12-02 01:49:11</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44167.07582175926</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6336,10 +6192,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-12-02 01:30:08</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44167.06259259259</v>
       </c>
       <c r="I82" t="n">
         <v>26</v>
@@ -6407,10 +6261,8 @@
           <t>3768661038</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-12-02 01:29:57</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44167.06246527778</v>
       </c>
       <c r="I83" t="n">
         <v>3</v>
@@ -6478,10 +6330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-12-02 01:29:55</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44167.06244212963</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6553,10 +6403,8 @@
           <t>3768654908</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-12-02 01:27:48</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44167.06097222222</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6624,10 +6472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-12-02 01:26:12</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44167.05986111111</v>
       </c>
       <c r="I86" t="n">
         <v>1</v>
@@ -6695,10 +6541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-12-02 00:49:38</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44167.0344675926</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6766,10 +6610,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-12-02 00:37:19</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44167.02591435185</v>
       </c>
       <c r="I88" t="n">
         <v>3</v>
@@ -6841,10 +6683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-12-02 00:24:53</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44167.01728009259</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6904,10 +6744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-12-02 00:22:33</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44167.01565972222</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6975,10 +6813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-12-02 00:10:23</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44167.00721064815</v>
       </c>
       <c r="I91" t="n">
         <v>5</v>
@@ -7050,10 +6886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-12-02 00:04:47</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44167.00332175926</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7125,10 +6959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-12-02 00:03:31</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44167.00244212963</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7200,10 +7032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:43:24</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44166.98847222222</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7271,10 +7101,8 @@
           <t>3768335341</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:36:13</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44166.9834837963</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7338,10 +7166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:18:49</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44166.97140046296</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7417,10 +7243,8 @@
           <t>3768066482</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:16:48</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44166.97</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7480,10 +7304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:10:06</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44166.96534722222</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7560,10 +7382,8 @@
           <t>3768211429</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:08:14</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44166.96405092593</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7632,10 +7452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:06:45</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44166.96302083333</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7699,10 +7517,8 @@
           <t>3768183962</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:02:53</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44166.96033564815</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7766,10 +7582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-12-01 23:02:03</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44166.95975694444</v>
       </c>
       <c r="I102" t="n">
         <v>6</v>
@@ -7841,10 +7655,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:57:36</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44166.95666666667</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -7908,10 +7720,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:57:17</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44166.95644675926</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -7985,10 +7795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:47:04</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44166.94935185185</v>
       </c>
       <c r="I105" t="n">
         <v>5</v>
@@ -8060,10 +7868,8 @@
           <t>3768075884</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:35:57</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44166.94163194444</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8127,10 +7933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:34:51</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44166.94086805556</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8194,10 +7998,8 @@
           <t>3768066482</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:34:35</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44166.94068287037</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8261,10 +8063,8 @@
           <t>3768053120</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:32:19</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44166.93910879629</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8340,10 +8140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:31:25</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44166.93848379629</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8419,10 +8217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:27:28</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44166.93574074074</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8490,10 +8286,8 @@
           <t>3767979341</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:16:13</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44166.92792824074</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8557,10 +8351,8 @@
           <t>3767966279</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:11:23</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44166.92457175926</v>
       </c>
       <c r="I113" t="n">
         <v>8</v>
@@ -8628,10 +8420,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-12-01 22:02:39</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44166.91850694444</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8707,10 +8497,8 @@
           <t>3767896364</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:53:21</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44166.91204861111</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8782,10 +8570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:39:36</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44166.9025</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8862,10 +8648,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:30:38</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44166.89627314815</v>
       </c>
       <c r="I117" t="n">
         <v>2</v>
@@ -8937,10 +8721,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:25:28</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44166.89268518519</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9012,10 +8794,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:16:29</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44166.88644675926</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9083,10 +8863,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:14:11</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44166.88484953704</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9154,10 +8932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:13:43</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44166.88452546296</v>
       </c>
       <c r="I121" t="n">
         <v>3</v>
@@ -9225,10 +9001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:10:41</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44166.88241898148</v>
       </c>
       <c r="I122" t="n">
         <v>6</v>
@@ -9296,10 +9070,8 @@
           <t>3767706381</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-12-01 21:05:29</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44166.87880787037</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9375,10 +9147,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:52:14</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44166.86960648148</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9442,10 +9212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:48:37</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44166.86709490741</v>
       </c>
       <c r="I125" t="n">
         <v>2</v>
@@ -9513,10 +9281,8 @@
           <t>3767642211</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:47:07</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44166.86605324074</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9576,10 +9342,8 @@
           <t>3767636927</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:46:06</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44166.86534722222</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9643,10 +9407,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:41:08</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44166.86189814815</v>
       </c>
       <c r="I128" t="n">
         <v>6</v>
@@ -9718,10 +9480,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:35:11</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44166.85776620371</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9789,10 +9549,8 @@
           <t>3767566668</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:26:22</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44166.85164351852</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9864,10 +9622,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-12-01 20:10:21</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44166.84052083334</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9931,10 +9687,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:54:10</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44166.82928240741</v>
       </c>
       <c r="I132" t="n">
         <v>2</v>
@@ -10006,10 +9760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:50:46</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44166.8269212963</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10082,10 +9834,8 @@
           <t>3767428252</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:49:24</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44166.82597222222</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10161,10 +9911,8 @@
           <t>3767427784</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:49:01</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44166.82570601852</v>
       </c>
       <c r="I135" t="n">
         <v>2</v>
@@ -10232,10 +9980,8 @@
           <t>3767426652</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:48:04</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44166.8250462963</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10313,10 +10059,8 @@
           <t>3767415150</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:44:18</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44166.82243055556</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10388,10 +10132,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:43:26</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44166.8218287037</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10455,10 +10197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:43:12</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44166.82166666666</v>
       </c>
       <c r="I139" t="n">
         <v>1</v>
@@ -10527,10 +10267,8 @@
           <t>3767214158</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:42:18</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44166.82104166667</v>
       </c>
       <c r="I140" t="n">
         <v>35</v>
@@ -10602,10 +10340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:39:59</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44166.81943287037</v>
       </c>
       <c r="I141" t="n">
         <v>14</v>
@@ -10681,10 +10417,8 @@
           <t>3767391490</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:39:27</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44166.8190625</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10748,10 +10482,8 @@
           <t>3767383490</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:37:20</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44166.81759259259</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10815,10 +10547,8 @@
           <t>3767214158</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:36:15</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44166.81684027778</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -10886,10 +10616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:34:28</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44166.81560185185</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10953,10 +10681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:24:41</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44166.80880787037</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11028,10 +10754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:22:58</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44166.80761574074</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11107,10 +10831,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:16:45</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44166.80329861111</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11182,10 +10904,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:16:31</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44166.80313657408</v>
       </c>
       <c r="I149" t="n">
         <v>2</v>
@@ -11257,10 +10977,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:15:46</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44166.80261574074</v>
       </c>
       <c r="I150" t="n">
         <v>9</v>
@@ -11332,10 +11050,8 @@
           <t>3767301608</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:15:03</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44166.80211805556</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11411,10 +11127,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:14:47</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44166.80193287037</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11486,10 +11200,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:14:07</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44166.8014699074</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11561,10 +11273,8 @@
           <t>3767297433</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:13:57</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44166.80135416667</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11632,10 +11342,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:10:15</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44166.79878472222</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11699,10 +11407,8 @@
           <t>3767277649</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:08:17</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44166.79741898148</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11778,10 +11484,8 @@
           <t>3767264765</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:06:08</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44166.79592592592</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11853,10 +11557,8 @@
           <t>3767267297</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:05:56</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44166.79578703704</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11928,10 +11630,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:05:18</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44166.79534722222</v>
       </c>
       <c r="I159" t="n">
         <v>9</v>
@@ -11999,10 +11699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:03:57</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44166.79440972222</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12070,10 +11768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:02:50</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44166.79363425926</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12141,10 +11837,8 @@
           <t>3767239983</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:00:17</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44166.79186342593</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12216,10 +11910,8 @@
           <t>3767247158</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-12-01 19:00:17</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44166.79186342593</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12287,10 +11979,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:59:45</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44166.79149305556</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12354,10 +12044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:57:40</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44166.79004629629</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12425,10 +12113,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:55:18</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44166.78840277778</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12496,10 +12182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:55:10</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44166.78831018518</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12572,10 +12256,8 @@
           <t>3767214158</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:53:17</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44166.78700231481</v>
       </c>
       <c r="I168" t="n">
         <v>23</v>
@@ -12639,10 +12321,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:53:06</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44166.786875</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12711,10 +12391,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:52:46</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44166.78664351852</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12778,10 +12456,8 @@
           <t>3767212348</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:51:48</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44166.78597222222</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12845,10 +12521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:49:49</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44166.78459490741</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12916,10 +12590,8 @@
           <t>3767203866</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:49:42</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44166.78451388889</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12987,10 +12659,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:48:15</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44166.78350694444</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13066,10 +12736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:48:08</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44166.78342592593</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13145,10 +12813,8 @@
           <t>3767193665</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:47:19</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44166.78285879629</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13216,10 +12882,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:44:22</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44166.78081018518</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13287,10 +12951,8 @@
           <t>3767187171</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:44:22</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44166.78081018518</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13362,10 +13024,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:43:35</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44166.78026620371</v>
       </c>
       <c r="I179" t="n">
         <v>12</v>
@@ -13429,10 +13089,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:42:33</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44166.77954861111</v>
       </c>
       <c r="I180" t="n">
         <v>3</v>
@@ -13508,10 +13166,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:41:42</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44166.77895833334</v>
       </c>
       <c r="I181" t="n">
         <v>2</v>
@@ -13583,10 +13239,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:40:14</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44166.77793981481</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13658,10 +13312,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:37:26</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44166.77599537037</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13737,10 +13389,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:36:32</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44166.77537037037</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13804,10 +13454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:35:49</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44166.77487268519</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13879,10 +13527,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:34:30</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44166.77395833333</v>
       </c>
       <c r="I186" t="n">
         <v>2</v>
@@ -13950,10 +13596,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:33:48</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44166.77347222222</v>
       </c>
       <c r="I187" t="n">
         <v>16</v>
@@ -14017,10 +13661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:32:42</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44166.77270833333</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14088,10 +13730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:30:53</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44166.77144675926</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14155,10 +13795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:25:40</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44166.76782407407</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14236,10 +13874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:24:58</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44166.76733796296</v>
       </c>
       <c r="I191" t="n">
         <v>1</v>
@@ -14307,10 +13943,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:24:55</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44166.76730324074</v>
       </c>
       <c r="I192" t="n">
         <v>1</v>
@@ -14378,10 +14012,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:24:49</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44166.76723379629</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14445,10 +14077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:23:59</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44166.76665509259</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14512,10 +14142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:23:13</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44166.76612268519</v>
       </c>
       <c r="I195" t="n">
         <v>16</v>
@@ -14583,10 +14211,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:21:38</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44166.76502314815</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14650,10 +14276,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:21:01</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44166.76459490741</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14729,10 +14353,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:20:54</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44166.76451388889</v>
       </c>
       <c r="I198" t="n">
         <v>1</v>
@@ -14796,10 +14418,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:19:25</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44166.7634837963</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14871,10 +14491,8 @@
           <t>3767086634</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:17:45</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44166.76232638889</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14946,10 +14564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:17:23</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44166.76207175926</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15021,10 +14637,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:16:33</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44166.76149305556</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15100,10 +14714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:16:23</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44166.76137731481</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15175,10 +14787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:15:56</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44166.76106481482</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15254,10 +14864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:14:55</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44166.76035879629</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15325,10 +14933,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:13:41</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44166.75950231482</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15388,10 +14994,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:12:39</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44166.75878472222</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15459,10 +15063,8 @@
           <t>3767059934</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:12:06</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44166.75840277778</v>
       </c>
       <c r="I208" t="n">
         <v>2</v>
@@ -15538,10 +15140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:11:42</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44166.758125</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15605,10 +15205,8 @@
           <t>3767065978</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:11:08</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44166.75773148148</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
@@ -15672,10 +15270,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:10:32</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44166.75731481481</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15751,10 +15347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:09:14</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44166.75641203704</v>
       </c>
       <c r="I212" t="n">
         <v>21</v>
@@ -15818,10 +15412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:08:58</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44166.75622685185</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15893,10 +15485,8 @@
           <t>3767055583</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:08:25</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44166.75584490741</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15972,10 +15562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:07:58</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44166.75553240741</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16039,10 +15627,8 @@
           <t>3767048225</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:07:48</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44166.75541666667</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16110,10 +15696,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:06:59</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44166.75484953704</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16181,10 +15765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:05:04</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44166.75351851852</v>
       </c>
       <c r="I218" t="n">
         <v>9</v>
@@ -16248,10 +15830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:04:15</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44166.75295138889</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16315,10 +15895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:04:12</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44166.75291666666</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16382,10 +15960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:03:18</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44166.75229166666</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16461,10 +16037,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:03:07</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44166.75216435185</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16524,10 +16098,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:03:07</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44166.75216435185</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16599,10 +16171,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:03:05</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44166.7521412037</v>
       </c>
       <c r="I224" t="n">
         <v>64</v>
@@ -16670,10 +16240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:02:56</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44166.75203703704</v>
       </c>
       <c r="I225" t="n">
         <v>3</v>
@@ -16749,10 +16317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:02:46</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44166.75192129629</v>
       </c>
       <c r="I226" t="n">
         <v>1</v>
@@ -16812,10 +16378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:02:42</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44166.751875</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16883,10 +16447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:02:34</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44166.75178240741</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16954,10 +16516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:02:25</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44166.75167824074</v>
       </c>
       <c r="I229" t="n">
         <v>2</v>
@@ -17021,10 +16581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:02:18</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44166.75159722222</v>
       </c>
       <c r="I230" t="n">
         <v>2</v>
@@ -17096,10 +16654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:58</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44166.75136574074</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17171,10 +16727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:57</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44166.75135416666</v>
       </c>
       <c r="I232" t="n">
         <v>1</v>
@@ -17246,10 +16800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:54</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44166.75131944445</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17325,10 +16877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:49</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44166.75126157407</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17404,10 +16954,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:48</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44166.75125</v>
       </c>
       <c r="I235" t="n">
         <v>1</v>
@@ -17475,10 +17023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:45</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44166.75121527778</v>
       </c>
       <c r="I236" t="n">
         <v>366</v>
@@ -17546,10 +17092,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:44</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44166.7512037037</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17625,10 +17169,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:37</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44166.75112268519</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17704,10 +17246,8 @@
           <t>3767027219</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:31</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44166.75105324074</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -17775,10 +17315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:30</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44166.75104166667</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17846,10 +17384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:30</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44166.75104166667</v>
       </c>
       <c r="I241" t="n">
         <v>88</v>
@@ -17917,10 +17453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:28</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44166.75101851852</v>
       </c>
       <c r="I242" t="n">
         <v>3</v>
@@ -17992,10 +17526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:27</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44166.75100694445</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18063,10 +17595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:25</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44166.75098379629</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18142,10 +17672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:24</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44166.75097222222</v>
       </c>
       <c r="I245" t="n">
         <v>1</v>
@@ -18209,10 +17737,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:16</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44166.75087962963</v>
       </c>
       <c r="I246" t="n">
         <v>1</v>
@@ -18284,10 +17810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:16</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44166.75087962963</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18351,10 +17875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:15</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44166.75086805555</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18422,10 +17944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:14</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44166.75085648148</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18489,10 +18009,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:13</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44166.75084490741</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18556,10 +18074,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:08</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44166.75078703704</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18623,10 +18139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:04</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44166.75074074074</v>
       </c>
       <c r="I252" t="n">
         <v>31</v>
@@ -18694,10 +18208,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:03</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44166.75072916667</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18769,10 +18281,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:02</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44166.75071759259</v>
       </c>
       <c r="I254" t="n">
         <v>2</v>
@@ -18840,10 +18350,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:01</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44166.75070601852</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -18919,10 +18427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:01:00</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44166.75069444445</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -18998,10 +18504,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:00:58</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44166.75067129629</v>
       </c>
       <c r="I257" t="n">
         <v>1186</v>
@@ -19069,10 +18573,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:00:48</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44166.75055555555</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19140,10 +18642,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-12-01 18:00:45</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44166.75052083333</v>
       </c>
       <c r="I259" t="n">
         <v>41</v>
